--- a/target/classes/dataoutput.xlsx
+++ b/target/classes/dataoutput.xlsx
@@ -293,8 +293,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="1" max="1" width="11.71875" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="11.71875" customWidth="true"/>
+    <col min="4" max="4" width="11.71875" customWidth="true"/>
+    <col min="5" max="5" width="11.71875" customWidth="true"/>
+    <col min="6" max="6" width="11.71875" customWidth="true"/>
+    <col min="7" max="7" width="11.71875" customWidth="true"/>
     <col min="8" max="8" width="117.1875" customWidth="true"/>
+    <col min="9" max="9" width="11.71875" customWidth="true"/>
+    <col min="10" max="10" width="11.71875" customWidth="true"/>
+    <col min="11" max="11" width="11.71875" customWidth="true"/>
+    <col min="12" max="12" width="11.71875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -921,7 +931,7 @@
         <v>12.0</v>
       </c>
       <c r="J18" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K18" t="n">
         <v>30.0</v>
@@ -956,7 +966,7 @@
         <v>12.0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K19" t="n">
         <v>30.0</v>
@@ -991,7 +1001,7 @@
         <v>14.0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K20" t="n">
         <v>30.0</v>
@@ -1026,7 +1036,7 @@
         <v>12.0</v>
       </c>
       <c r="J21" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K21" t="n">
         <v>30.0</v>
@@ -1061,7 +1071,7 @@
         <v>41.0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K22" t="n">
         <v>30.0</v>
@@ -1096,7 +1106,7 @@
         <v>1.0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K23" t="n">
         <v>30.0</v>
@@ -1131,7 +1141,7 @@
         <v>12.0</v>
       </c>
       <c r="J24" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K24" t="n">
         <v>30.0</v>
@@ -1166,7 +1176,7 @@
         <v>12.0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K25" t="n">
         <v>30.0</v>
@@ -1201,7 +1211,7 @@
         <v>35.0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K26" t="n">
         <v>30.0</v>
@@ -1236,7 +1246,7 @@
         <v>5.0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K27" t="n">
         <v>30.0</v>
@@ -1271,10 +1281,10 @@
         <v>47.0</v>
       </c>
       <c r="J28" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K28" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -1306,10 +1316,10 @@
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K29" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -1341,10 +1351,10 @@
         <v>45.0</v>
       </c>
       <c r="J30" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K30" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -1376,10 +1386,10 @@
         <v>30.0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K31" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -1411,10 +1421,10 @@
         <v>47.0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K32" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -1446,10 +1456,10 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K33" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -1481,10 +1491,10 @@
         <v>10.0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K34" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -1516,10 +1526,10 @@
         <v>24.0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K35" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -1551,10 +1561,10 @@
         <v>45.0</v>
       </c>
       <c r="J36" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K36" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -1586,10 +1596,10 @@
         <v>124.0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K37" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -1621,10 +1631,10 @@
         <v>20.0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K38" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -1656,10 +1666,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K39" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -1691,10 +1701,10 @@
         <v>45.0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K40" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -1726,10 +1736,10 @@
         <v>21.0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K41" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -1761,10 +1771,10 @@
         <v>15.0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K42" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -1796,10 +1806,10 @@
         <v>10.0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K43" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -1831,10 +1841,10 @@
         <v>37.0</v>
       </c>
       <c r="J44" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K44" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -1866,10 +1876,10 @@
         <v>16.0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K45" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -1901,10 +1911,10 @@
         <v>21.0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K46" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -1936,10 +1946,10 @@
         <v>10.0</v>
       </c>
       <c r="J47" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K47" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -1971,10 +1981,10 @@
         <v>15.0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K48" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -2006,10 +2016,10 @@
         <v>0.0</v>
       </c>
       <c r="J49" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K49" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -2041,10 +2051,10 @@
         <v>21.0</v>
       </c>
       <c r="J50" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K50" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -2076,10 +2086,10 @@
         <v>0.0</v>
       </c>
       <c r="J51" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K51" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -2111,10 +2121,10 @@
         <v>8.0</v>
       </c>
       <c r="J52" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K52" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
@@ -2146,10 +2156,10 @@
         <v>22.0</v>
       </c>
       <c r="J53" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K53" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -2181,10 +2191,10 @@
         <v>9.0</v>
       </c>
       <c r="J54" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K54" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -2216,10 +2226,10 @@
         <v>37.0</v>
       </c>
       <c r="J55" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K55" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -2251,10 +2261,10 @@
         <v>8.0</v>
       </c>
       <c r="J56" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K56" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -2286,10 +2296,10 @@
         <v>20.0</v>
       </c>
       <c r="J57" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K57" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -2321,10 +2331,10 @@
         <v>15.0</v>
       </c>
       <c r="J58" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K58" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -2356,10 +2366,10 @@
         <v>20.0</v>
       </c>
       <c r="J59" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K59" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -2391,10 +2401,10 @@
         <v>9.0</v>
       </c>
       <c r="J60" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K60" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
@@ -2426,10 +2436,10 @@
         <v>0.0</v>
       </c>
       <c r="J61" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K61" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
@@ -2461,10 +2471,10 @@
         <v>21.0</v>
       </c>
       <c r="J62" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K62" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -2496,10 +2506,10 @@
         <v>8.0</v>
       </c>
       <c r="J63" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K63" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
@@ -2531,10 +2541,10 @@
         <v>22.0</v>
       </c>
       <c r="J64" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K64" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
@@ -2566,10 +2576,10 @@
         <v>27.0</v>
       </c>
       <c r="J65" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K65" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -2601,10 +2611,10 @@
         <v>23.0</v>
       </c>
       <c r="J66" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K66" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -2636,10 +2646,10 @@
         <v>28.0</v>
       </c>
       <c r="J67" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K67" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
@@ -2671,10 +2681,10 @@
         <v>27.0</v>
       </c>
       <c r="J68" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K68" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -2706,10 +2716,10 @@
         <v>23.0</v>
       </c>
       <c r="J69" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K69" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
@@ -2741,10 +2751,10 @@
         <v>28.0</v>
       </c>
       <c r="J70" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K70" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
@@ -2776,10 +2786,10 @@
         <v>27.0</v>
       </c>
       <c r="J71" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K71" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -2811,10 +2821,10 @@
         <v>23.0</v>
       </c>
       <c r="J72" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K72" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -2846,10 +2856,10 @@
         <v>17.0</v>
       </c>
       <c r="J73" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K73" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -2881,10 +2891,10 @@
         <v>26.0</v>
       </c>
       <c r="J74" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K74" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -2916,10 +2926,10 @@
         <v>17.0</v>
       </c>
       <c r="J75" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K75" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
@@ -2951,10 +2961,10 @@
         <v>26.0</v>
       </c>
       <c r="J76" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K76" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -2986,10 +2996,10 @@
         <v>31.0</v>
       </c>
       <c r="J77" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K77" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
@@ -3021,10 +3031,10 @@
         <v>15.0</v>
       </c>
       <c r="J78" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K78" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
@@ -3056,10 +3066,10 @@
         <v>17.0</v>
       </c>
       <c r="J79" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K79" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -3091,10 +3101,10 @@
         <v>0.0</v>
       </c>
       <c r="J80" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K80" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -3126,10 +3136,10 @@
         <v>26.0</v>
       </c>
       <c r="J81" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K81" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
@@ -3161,10 +3171,10 @@
         <v>31.0</v>
       </c>
       <c r="J82" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K82" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -3196,10 +3206,10 @@
         <v>3.0</v>
       </c>
       <c r="J83" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K83" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -3231,10 +3241,10 @@
         <v>6.0</v>
       </c>
       <c r="J84" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K84" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
@@ -3266,10 +3276,10 @@
         <v>9.0</v>
       </c>
       <c r="J85" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K85" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
@@ -3301,10 +3311,10 @@
         <v>25.0</v>
       </c>
       <c r="J86" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K86" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -3336,10 +3346,10 @@
         <v>10.0</v>
       </c>
       <c r="J87" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K87" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
@@ -3371,10 +3381,10 @@
         <v>30.0</v>
       </c>
       <c r="J88" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K88" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
@@ -3406,10 +3416,10 @@
         <v>9.0</v>
       </c>
       <c r="J89" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K89" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
@@ -3441,10 +3451,10 @@
         <v>4.0</v>
       </c>
       <c r="J90" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K90" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
@@ -3476,10 +3486,10 @@
         <v>11.0</v>
       </c>
       <c r="J91" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K91" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
@@ -3511,10 +3521,10 @@
         <v>6.0</v>
       </c>
       <c r="J92" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K92" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
@@ -3546,10 +3556,10 @@
         <v>9.0</v>
       </c>
       <c r="J93" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K93" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
@@ -3581,10 +3591,10 @@
         <v>10.0</v>
       </c>
       <c r="J94" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K94" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -3616,10 +3626,10 @@
         <v>41.0</v>
       </c>
       <c r="J95" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K95" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
@@ -3651,10 +3661,10 @@
         <v>2.0</v>
       </c>
       <c r="J96" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K96" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
@@ -3686,10 +3696,10 @@
         <v>22.0</v>
       </c>
       <c r="J97" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K97" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
@@ -3721,10 +3731,10 @@
         <v>4.0</v>
       </c>
       <c r="J98" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K98" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
@@ -3756,10 +3766,10 @@
         <v>16.0</v>
       </c>
       <c r="J99" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K99" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
@@ -3791,10 +3801,10 @@
         <v>8.0</v>
       </c>
       <c r="J100" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K100" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
@@ -3826,10 +3836,10 @@
         <v>3.0</v>
       </c>
       <c r="J101" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K101" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
@@ -3861,10 +3871,10 @@
         <v>25.0</v>
       </c>
       <c r="J102" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K102" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -3896,10 +3906,10 @@
         <v>4.0</v>
       </c>
       <c r="J103" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K103" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
@@ -3931,10 +3941,10 @@
         <v>2.0</v>
       </c>
       <c r="J104" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K104" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -3966,10 +3976,10 @@
         <v>15.0</v>
       </c>
       <c r="J105" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K105" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
@@ -4631,7 +4641,7 @@
         <v>5.0</v>
       </c>
       <c r="J124" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K124" t="n">
         <v>30.0</v>
@@ -4666,7 +4676,7 @@
         <v>1.0</v>
       </c>
       <c r="J125" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K125" t="n">
         <v>30.0</v>
@@ -4701,7 +4711,7 @@
         <v>5.0</v>
       </c>
       <c r="J126" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K126" t="n">
         <v>30.0</v>
@@ -4736,7 +4746,7 @@
         <v>8.0</v>
       </c>
       <c r="J127" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K127" t="n">
         <v>30.0</v>
@@ -4771,7 +4781,7 @@
         <v>5.0</v>
       </c>
       <c r="J128" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K128" t="n">
         <v>30.0</v>
@@ -4806,7 +4816,7 @@
         <v>8.0</v>
       </c>
       <c r="J129" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K129" t="n">
         <v>30.0</v>
@@ -4841,7 +4851,7 @@
         <v>36.0</v>
       </c>
       <c r="J130" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K130" t="n">
         <v>30.0</v>
@@ -4876,7 +4886,7 @@
         <v>16.0</v>
       </c>
       <c r="J131" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K131" t="n">
         <v>30.0</v>
@@ -4911,7 +4921,7 @@
         <v>5.0</v>
       </c>
       <c r="J132" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K132" t="n">
         <v>30.0</v>
@@ -4946,7 +4956,7 @@
         <v>5.0</v>
       </c>
       <c r="J133" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K133" t="n">
         <v>30.0</v>
@@ -4981,7 +4991,7 @@
         <v>39.0</v>
       </c>
       <c r="J134" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K134" t="n">
         <v>30.0</v>
@@ -5016,10 +5026,10 @@
         <v>26.0</v>
       </c>
       <c r="J135" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K135" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
@@ -5051,10 +5061,10 @@
         <v>6.0</v>
       </c>
       <c r="J136" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K136" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
@@ -5086,10 +5096,10 @@
         <v>18.0</v>
       </c>
       <c r="J137" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K137" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
@@ -5121,10 +5131,10 @@
         <v>24.0</v>
       </c>
       <c r="J138" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K138" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="139">
@@ -5156,10 +5166,10 @@
         <v>18.0</v>
       </c>
       <c r="J139" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K139" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="140">
@@ -5191,10 +5201,10 @@
         <v>26.0</v>
       </c>
       <c r="J140" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K140" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
@@ -5226,10 +5236,10 @@
         <v>146.0</v>
       </c>
       <c r="J141" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K141" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
@@ -5261,10 +5271,10 @@
         <v>30.0</v>
       </c>
       <c r="J142" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K142" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="143">
@@ -5296,10 +5306,10 @@
         <v>18.0</v>
       </c>
       <c r="J143" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K143" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
@@ -5331,10 +5341,10 @@
         <v>0.0</v>
       </c>
       <c r="J144" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K144" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
@@ -5366,10 +5376,10 @@
         <v>18.0</v>
       </c>
       <c r="J145" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K145" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="146">
@@ -5401,10 +5411,10 @@
         <v>16.0</v>
       </c>
       <c r="J146" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K146" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="147">
@@ -5436,10 +5446,10 @@
         <v>20.0</v>
       </c>
       <c r="J147" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K147" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="148">
@@ -5471,10 +5481,10 @@
         <v>37.0</v>
       </c>
       <c r="J148" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K148" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="149">
@@ -5506,10 +5516,10 @@
         <v>22.0</v>
       </c>
       <c r="J149" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K149" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
@@ -5541,10 +5551,10 @@
         <v>21.0</v>
       </c>
       <c r="J150" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K150" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="151">
@@ -5576,10 +5586,10 @@
         <v>16.0</v>
       </c>
       <c r="J151" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K151" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
@@ -5611,10 +5621,10 @@
         <v>11.0</v>
       </c>
       <c r="J152" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K152" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="153">
@@ -5646,10 +5656,10 @@
         <v>10.0</v>
       </c>
       <c r="J153" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K153" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="154">
@@ -5681,10 +5691,10 @@
         <v>22.0</v>
       </c>
       <c r="J154" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K154" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155">
@@ -5716,10 +5726,10 @@
         <v>0.0</v>
       </c>
       <c r="J155" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K155" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="156">
@@ -5751,10 +5761,10 @@
         <v>37.0</v>
       </c>
       <c r="J156" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K156" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
@@ -5786,10 +5796,10 @@
         <v>22.0</v>
       </c>
       <c r="J157" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K157" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -5821,10 +5831,10 @@
         <v>20.0</v>
       </c>
       <c r="J158" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K158" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="159">
@@ -5856,10 +5866,10 @@
         <v>15.0</v>
       </c>
       <c r="J159" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K159" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
@@ -5891,10 +5901,10 @@
         <v>16.0</v>
       </c>
       <c r="J160" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K160" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="161">
@@ -5926,10 +5936,10 @@
         <v>0.0</v>
       </c>
       <c r="J161" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K161" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="162">
@@ -5961,10 +5971,10 @@
         <v>21.0</v>
       </c>
       <c r="J162" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K162" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
@@ -5996,10 +6006,10 @@
         <v>22.0</v>
       </c>
       <c r="J163" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K163" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="164">
@@ -6031,10 +6041,10 @@
         <v>0.0</v>
       </c>
       <c r="J164" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K164" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
@@ -6066,10 +6076,10 @@
         <v>16.0</v>
       </c>
       <c r="J165" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K165" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="166">
@@ -6101,10 +6111,10 @@
         <v>28.0</v>
       </c>
       <c r="J166" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K166" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
@@ -6136,10 +6146,10 @@
         <v>27.0</v>
       </c>
       <c r="J167" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K167" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
@@ -6171,10 +6181,10 @@
         <v>28.0</v>
       </c>
       <c r="J168" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K168" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="169">
@@ -6206,10 +6216,10 @@
         <v>27.0</v>
       </c>
       <c r="J169" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K169" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="170">
@@ -6241,10 +6251,10 @@
         <v>28.0</v>
       </c>
       <c r="J170" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K170" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="171">
@@ -6276,10 +6286,10 @@
         <v>39.0</v>
       </c>
       <c r="J171" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K171" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="172">
@@ -6311,10 +6321,10 @@
         <v>27.0</v>
       </c>
       <c r="J172" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K172" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -6346,10 +6356,10 @@
         <v>28.0</v>
       </c>
       <c r="J173" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K173" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="174">
@@ -6381,10 +6391,10 @@
         <v>39.0</v>
       </c>
       <c r="J174" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K174" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
@@ -6416,10 +6426,10 @@
         <v>23.0</v>
       </c>
       <c r="J175" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K175" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="176">
@@ -6451,10 +6461,10 @@
         <v>19.0</v>
       </c>
       <c r="J176" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K176" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="177">
@@ -6486,10 +6496,10 @@
         <v>23.0</v>
       </c>
       <c r="J177" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K177" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="178">
@@ -6521,10 +6531,10 @@
         <v>36.0</v>
       </c>
       <c r="J178" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K178" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
@@ -6556,10 +6566,10 @@
         <v>19.0</v>
       </c>
       <c r="J179" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K179" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
@@ -6591,10 +6601,10 @@
         <v>23.0</v>
       </c>
       <c r="J180" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K180" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="181">
@@ -6626,10 +6636,10 @@
         <v>36.0</v>
       </c>
       <c r="J181" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K181" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
@@ -6661,10 +6671,10 @@
         <v>19.0</v>
       </c>
       <c r="J182" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K182" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="183">
@@ -6696,10 +6706,10 @@
         <v>23.0</v>
       </c>
       <c r="J183" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K183" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="184">
@@ -6731,10 +6741,10 @@
         <v>20.0</v>
       </c>
       <c r="J184" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K184" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="185">
@@ -6766,10 +6776,10 @@
         <v>15.0</v>
       </c>
       <c r="J185" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K185" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
@@ -6801,10 +6811,10 @@
         <v>6.0</v>
       </c>
       <c r="J186" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K186" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="187">
@@ -6836,10 +6846,10 @@
         <v>3.0</v>
       </c>
       <c r="J187" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K187" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
@@ -6871,10 +6881,10 @@
         <v>4.0</v>
       </c>
       <c r="J188" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K188" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="189">
@@ -6906,10 +6916,10 @@
         <v>6.0</v>
       </c>
       <c r="J189" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K189" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
@@ -6941,10 +6951,10 @@
         <v>9.0</v>
       </c>
       <c r="J190" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K190" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="191">
@@ -6976,10 +6986,10 @@
         <v>6.0</v>
       </c>
       <c r="J191" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K191" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="192">
@@ -7011,10 +7021,10 @@
         <v>6.0</v>
       </c>
       <c r="J192" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K192" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
@@ -7046,10 +7056,10 @@
         <v>6.0</v>
       </c>
       <c r="J193" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K193" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
@@ -7081,10 +7091,10 @@
         <v>6.0</v>
       </c>
       <c r="J194" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K194" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="195">
@@ -7116,10 +7126,10 @@
         <v>23.0</v>
       </c>
       <c r="J195" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K195" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="196">
@@ -7151,10 +7161,10 @@
         <v>36.0</v>
       </c>
       <c r="J196" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K196" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
@@ -7186,10 +7196,10 @@
         <v>9.0</v>
       </c>
       <c r="J197" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K197" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
@@ -7221,10 +7231,10 @@
         <v>25.0</v>
       </c>
       <c r="J198" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K198" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="199">
@@ -7256,10 +7266,10 @@
         <v>8.0</v>
       </c>
       <c r="J199" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K199" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
@@ -7291,10 +7301,10 @@
         <v>26.0</v>
       </c>
       <c r="J200" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K200" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
@@ -7326,10 +7336,10 @@
         <v>4.0</v>
       </c>
       <c r="J201" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K201" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="202">
@@ -7361,10 +7371,10 @@
         <v>19.0</v>
       </c>
       <c r="J202" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K202" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="203">
@@ -7396,10 +7406,10 @@
         <v>8.0</v>
       </c>
       <c r="J203" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K203" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="204">
@@ -7431,10 +7441,10 @@
         <v>3.0</v>
       </c>
       <c r="J204" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K204" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="205">
@@ -7466,10 +7476,10 @@
         <v>28.0</v>
       </c>
       <c r="J205" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K205" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
@@ -7501,10 +7511,10 @@
         <v>4.0</v>
       </c>
       <c r="J206" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K206" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
@@ -7536,10 +7546,10 @@
         <v>2.0</v>
       </c>
       <c r="J207" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K207" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="208">
@@ -7571,10 +7581,10 @@
         <v>20.0</v>
       </c>
       <c r="J208" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K208" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="209">
@@ -8236,7 +8246,7 @@
         <v>8.0</v>
       </c>
       <c r="J227" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K227" t="n">
         <v>30.0</v>
@@ -8271,7 +8281,7 @@
         <v>1.0</v>
       </c>
       <c r="J228" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K228" t="n">
         <v>30.0</v>
@@ -8306,7 +8316,7 @@
         <v>5.0</v>
       </c>
       <c r="J229" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K229" t="n">
         <v>30.0</v>
@@ -8341,7 +8351,7 @@
         <v>12.0</v>
       </c>
       <c r="J230" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K230" t="n">
         <v>30.0</v>
@@ -8376,7 +8386,7 @@
         <v>8.0</v>
       </c>
       <c r="J231" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K231" t="n">
         <v>30.0</v>
@@ -8411,7 +8421,7 @@
         <v>12.0</v>
       </c>
       <c r="J232" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K232" t="n">
         <v>30.0</v>
@@ -8446,7 +8456,7 @@
         <v>37.0</v>
       </c>
       <c r="J233" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K233" t="n">
         <v>30.0</v>
@@ -8481,7 +8491,7 @@
         <v>13.0</v>
       </c>
       <c r="J234" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K234" t="n">
         <v>30.0</v>
@@ -8516,7 +8526,7 @@
         <v>8.0</v>
       </c>
       <c r="J235" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K235" t="n">
         <v>30.0</v>
@@ -8551,7 +8561,7 @@
         <v>8.0</v>
       </c>
       <c r="J236" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K236" t="n">
         <v>30.0</v>
@@ -8586,7 +8596,7 @@
         <v>39.0</v>
       </c>
       <c r="J237" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K237" t="n">
         <v>30.0</v>
@@ -8621,10 +8631,10 @@
         <v>42.0</v>
       </c>
       <c r="J238" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K238" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="239">
@@ -8656,10 +8666,10 @@
         <v>30.0</v>
       </c>
       <c r="J239" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K239" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="240">
@@ -8691,10 +8701,10 @@
         <v>30.0</v>
       </c>
       <c r="J240" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K240" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="241">
@@ -8726,10 +8736,10 @@
         <v>42.0</v>
       </c>
       <c r="J241" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K241" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="242">
@@ -8761,10 +8771,10 @@
         <v>30.0</v>
       </c>
       <c r="J242" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K242" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="243">
@@ -8796,10 +8806,10 @@
         <v>30.0</v>
       </c>
       <c r="J243" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K243" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="244">
@@ -8831,10 +8841,10 @@
         <v>24.0</v>
       </c>
       <c r="J244" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K244" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
@@ -8866,10 +8876,10 @@
         <v>0.0</v>
       </c>
       <c r="J245" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K245" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="246">
@@ -8901,10 +8911,10 @@
         <v>0.0</v>
       </c>
       <c r="J246" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K246" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="247">
@@ -8936,10 +8946,10 @@
         <v>150.0</v>
       </c>
       <c r="J247" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K247" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="248">
@@ -8971,10 +8981,10 @@
         <v>30.0</v>
       </c>
       <c r="J248" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K248" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="249">
@@ -9006,10 +9016,10 @@
         <v>20.0</v>
       </c>
       <c r="J249" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K249" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="250">
@@ -9041,10 +9051,10 @@
         <v>20.0</v>
       </c>
       <c r="J250" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K250" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="251">
@@ -9076,10 +9086,10 @@
         <v>37.0</v>
       </c>
       <c r="J251" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K251" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
@@ -9111,10 +9121,10 @@
         <v>28.0</v>
       </c>
       <c r="J252" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K252" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="253">
@@ -9146,10 +9156,10 @@
         <v>21.0</v>
       </c>
       <c r="J253" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K253" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
@@ -9181,10 +9191,10 @@
         <v>20.0</v>
       </c>
       <c r="J254" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K254" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -9216,10 +9226,10 @@
         <v>8.0</v>
       </c>
       <c r="J255" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K255" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="256">
@@ -9251,10 +9261,10 @@
         <v>12.0</v>
       </c>
       <c r="J256" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K256" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="257">
@@ -9286,10 +9296,10 @@
         <v>28.0</v>
       </c>
       <c r="J257" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K257" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="258">
@@ -9321,10 +9331,10 @@
         <v>0.0</v>
       </c>
       <c r="J258" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K258" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="259">
@@ -9356,10 +9366,10 @@
         <v>21.0</v>
       </c>
       <c r="J259" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K259" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="260">
@@ -9391,10 +9401,10 @@
         <v>37.0</v>
       </c>
       <c r="J260" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K260" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="261">
@@ -9426,10 +9436,10 @@
         <v>16.0</v>
       </c>
       <c r="J261" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K261" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="262">
@@ -9461,10 +9471,10 @@
         <v>20.0</v>
       </c>
       <c r="J262" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K262" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="263">
@@ -9496,10 +9506,10 @@
         <v>15.0</v>
       </c>
       <c r="J263" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K263" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="264">
@@ -9531,10 +9541,10 @@
         <v>11.0</v>
       </c>
       <c r="J264" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K264" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="265">
@@ -9566,10 +9576,10 @@
         <v>0.0</v>
       </c>
       <c r="J265" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K265" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="266">
@@ -9601,10 +9611,10 @@
         <v>16.0</v>
       </c>
       <c r="J266" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K266" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="267">
@@ -9636,10 +9646,10 @@
         <v>0.0</v>
       </c>
       <c r="J267" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K267" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="268">
@@ -9671,10 +9681,10 @@
         <v>11.0</v>
       </c>
       <c r="J268" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K268" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="269">
@@ -9706,10 +9716,10 @@
         <v>24.0</v>
       </c>
       <c r="J269" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K269" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="270">
@@ -9741,10 +9751,10 @@
         <v>26.0</v>
       </c>
       <c r="J270" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K270" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="271">
@@ -9776,10 +9786,10 @@
         <v>24.0</v>
       </c>
       <c r="J271" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K271" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="272">
@@ -9811,10 +9821,10 @@
         <v>26.0</v>
       </c>
       <c r="J272" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K272" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
@@ -9846,10 +9856,10 @@
         <v>24.0</v>
       </c>
       <c r="J273" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K273" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="274">
@@ -9881,10 +9891,10 @@
         <v>34.0</v>
       </c>
       <c r="J274" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K274" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="275">
@@ -9916,10 +9926,10 @@
         <v>26.0</v>
       </c>
       <c r="J275" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K275" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="276">
@@ -9951,10 +9961,10 @@
         <v>24.0</v>
       </c>
       <c r="J276" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K276" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="277">
@@ -9986,10 +9996,10 @@
         <v>34.0</v>
       </c>
       <c r="J277" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K277" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="278">
@@ -10021,10 +10031,10 @@
         <v>24.0</v>
       </c>
       <c r="J278" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K278" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="279">
@@ -10056,10 +10066,10 @@
         <v>14.0</v>
       </c>
       <c r="J279" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K279" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="280">
@@ -10091,10 +10101,10 @@
         <v>24.0</v>
       </c>
       <c r="J280" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K280" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="281">
@@ -10126,10 +10136,10 @@
         <v>40.0</v>
       </c>
       <c r="J281" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K281" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="282">
@@ -10161,10 +10171,10 @@
         <v>14.0</v>
       </c>
       <c r="J282" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K282" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="283">
@@ -10196,10 +10206,10 @@
         <v>24.0</v>
       </c>
       <c r="J283" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K283" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="284">
@@ -10231,10 +10241,10 @@
         <v>40.0</v>
       </c>
       <c r="J284" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K284" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="285">
@@ -10266,10 +10276,10 @@
         <v>14.0</v>
       </c>
       <c r="J285" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K285" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="286">
@@ -10301,10 +10311,10 @@
         <v>24.0</v>
       </c>
       <c r="J286" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K286" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="287">
@@ -10336,10 +10346,10 @@
         <v>20.0</v>
       </c>
       <c r="J287" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K287" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="288">
@@ -10371,10 +10381,10 @@
         <v>15.0</v>
       </c>
       <c r="J288" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K288" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="289">
@@ -10406,10 +10416,10 @@
         <v>8.0</v>
       </c>
       <c r="J289" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K289" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="290">
@@ -10441,10 +10451,10 @@
         <v>6.0</v>
       </c>
       <c r="J290" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K290" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="291">
@@ -10476,10 +10486,10 @@
         <v>4.0</v>
       </c>
       <c r="J291" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K291" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="292">
@@ -10511,10 +10521,10 @@
         <v>73.0</v>
       </c>
       <c r="J292" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K292" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="293">
@@ -10546,10 +10556,10 @@
         <v>8.0</v>
       </c>
       <c r="J293" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K293" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="294">
@@ -10581,10 +10591,10 @@
         <v>3.0</v>
       </c>
       <c r="J294" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K294" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="295">
@@ -10616,10 +10626,10 @@
         <v>12.0</v>
       </c>
       <c r="J295" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K295" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="296">
@@ -10651,10 +10661,10 @@
         <v>6.0</v>
       </c>
       <c r="J296" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K296" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="297">
@@ -10686,10 +10696,10 @@
         <v>8.0</v>
       </c>
       <c r="J297" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K297" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="298">
@@ -10721,10 +10731,10 @@
         <v>8.0</v>
       </c>
       <c r="J298" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K298" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="299">
@@ -10756,10 +10766,10 @@
         <v>37.0</v>
       </c>
       <c r="J299" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K299" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="300">
@@ -10791,10 +10801,10 @@
         <v>12.0</v>
       </c>
       <c r="J300" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K300" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="301">
@@ -10826,10 +10836,10 @@
         <v>25.0</v>
       </c>
       <c r="J301" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K301" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="302">
@@ -10861,10 +10871,10 @@
         <v>10.0</v>
       </c>
       <c r="J302" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K302" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="303">
@@ -10896,10 +10906,10 @@
         <v>24.0</v>
       </c>
       <c r="J303" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K303" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="304">
@@ -10931,10 +10941,10 @@
         <v>3.0</v>
       </c>
       <c r="J304" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K304" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="305">
@@ -10966,10 +10976,10 @@
         <v>15.0</v>
       </c>
       <c r="J305" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K305" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="306">
@@ -11001,10 +11011,10 @@
         <v>8.0</v>
       </c>
       <c r="J306" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K306" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="307">
@@ -11036,10 +11046,10 @@
         <v>4.0</v>
       </c>
       <c r="J307" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K307" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="308">
@@ -11071,10 +11081,10 @@
         <v>23.0</v>
       </c>
       <c r="J308" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K308" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="309">
@@ -11106,10 +11116,10 @@
         <v>4.0</v>
       </c>
       <c r="J309" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K309" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -11141,10 +11151,10 @@
         <v>2.0</v>
       </c>
       <c r="J310" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K310" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="311">
@@ -11176,10 +11186,10 @@
         <v>21.0</v>
       </c>
       <c r="J311" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K311" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="312">
@@ -11841,7 +11851,7 @@
         <v>8.0</v>
       </c>
       <c r="J330" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K330" t="n">
         <v>30.0</v>
@@ -11876,7 +11886,7 @@
         <v>5.0</v>
       </c>
       <c r="J331" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K331" t="n">
         <v>30.0</v>
@@ -11911,7 +11921,7 @@
         <v>11.0</v>
       </c>
       <c r="J332" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K332" t="n">
         <v>30.0</v>
@@ -11946,7 +11956,7 @@
         <v>8.0</v>
       </c>
       <c r="J333" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K333" t="n">
         <v>30.0</v>
@@ -11981,7 +11991,7 @@
         <v>11.0</v>
       </c>
       <c r="J334" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K334" t="n">
         <v>30.0</v>
@@ -12016,7 +12026,7 @@
         <v>1.0</v>
       </c>
       <c r="J335" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K335" t="n">
         <v>30.0</v>
@@ -12051,7 +12061,7 @@
         <v>8.0</v>
       </c>
       <c r="J336" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K336" t="n">
         <v>30.0</v>
@@ -12086,7 +12096,7 @@
         <v>46.0</v>
       </c>
       <c r="J337" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K337" t="n">
         <v>30.0</v>
@@ -12121,7 +12131,7 @@
         <v>11.0</v>
       </c>
       <c r="J338" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K338" t="n">
         <v>30.0</v>
@@ -12156,7 +12166,7 @@
         <v>8.0</v>
       </c>
       <c r="J339" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K339" t="n">
         <v>30.0</v>
@@ -12191,7 +12201,7 @@
         <v>47.0</v>
       </c>
       <c r="J340" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K340" t="n">
         <v>30.0</v>
@@ -12226,10 +12236,10 @@
         <v>12.0</v>
       </c>
       <c r="J341" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K341" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="342">
@@ -12261,10 +12271,10 @@
         <v>36.0</v>
       </c>
       <c r="J342" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K342" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -12296,10 +12306,10 @@
         <v>50.0</v>
       </c>
       <c r="J343" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K343" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="344">
@@ -12331,10 +12341,10 @@
         <v>191.0</v>
       </c>
       <c r="J344" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K344" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="345">
@@ -12366,10 +12376,10 @@
         <v>36.0</v>
       </c>
       <c r="J345" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K345" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="346">
@@ -12401,10 +12411,10 @@
         <v>50.0</v>
       </c>
       <c r="J346" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K346" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="347">
@@ -12436,10 +12446,10 @@
         <v>24.0</v>
       </c>
       <c r="J347" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K347" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="348">
@@ -12471,10 +12481,10 @@
         <v>36.0</v>
       </c>
       <c r="J348" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K348" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="349">
@@ -12506,10 +12516,10 @@
         <v>30.0</v>
       </c>
       <c r="J349" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K349" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="350">
@@ -12541,10 +12551,10 @@
         <v>0.0</v>
       </c>
       <c r="J350" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K350" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -12576,10 +12586,10 @@
         <v>36.0</v>
       </c>
       <c r="J351" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K351" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="352">
@@ -12611,10 +12621,10 @@
         <v>6.0</v>
       </c>
       <c r="J352" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K352" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="353">
@@ -12646,10 +12656,10 @@
         <v>14.0</v>
       </c>
       <c r="J353" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K353" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -12681,10 +12691,10 @@
         <v>37.0</v>
       </c>
       <c r="J354" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K354" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="355">
@@ -12716,10 +12726,10 @@
         <v>15.0</v>
       </c>
       <c r="J355" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K355" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="356">
@@ -12751,10 +12761,10 @@
         <v>14.0</v>
       </c>
       <c r="J356" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K356" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="357">
@@ -12786,10 +12796,10 @@
         <v>20.0</v>
       </c>
       <c r="J357" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K357" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="358">
@@ -12821,10 +12831,10 @@
         <v>10.0</v>
       </c>
       <c r="J358" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K358" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="359">
@@ -12856,10 +12866,10 @@
         <v>7.0</v>
       </c>
       <c r="J359" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K359" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="360">
@@ -12891,10 +12901,10 @@
         <v>15.0</v>
       </c>
       <c r="J360" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K360" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="361">
@@ -12926,10 +12936,10 @@
         <v>21.0</v>
       </c>
       <c r="J361" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K361" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="362">
@@ -12961,10 +12971,10 @@
         <v>0.0</v>
       </c>
       <c r="J362" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K362" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="363">
@@ -12996,10 +13006,10 @@
         <v>14.0</v>
       </c>
       <c r="J363" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K363" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="364">
@@ -13031,10 +13041,10 @@
         <v>37.0</v>
       </c>
       <c r="J364" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K364" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="365">
@@ -13066,10 +13076,10 @@
         <v>23.0</v>
       </c>
       <c r="J365" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K365" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="366">
@@ -13101,10 +13111,10 @@
         <v>20.0</v>
       </c>
       <c r="J366" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K366" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="367">
@@ -13136,10 +13146,10 @@
         <v>15.0</v>
       </c>
       <c r="J367" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K367" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="368">
@@ -13171,10 +13181,10 @@
         <v>16.0</v>
       </c>
       <c r="J368" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K368" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="369">
@@ -13206,10 +13216,10 @@
         <v>0.0</v>
       </c>
       <c r="J369" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K369" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="370">
@@ -13241,10 +13251,10 @@
         <v>21.0</v>
       </c>
       <c r="J370" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K370" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="371">
@@ -13276,10 +13286,10 @@
         <v>23.0</v>
       </c>
       <c r="J371" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K371" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="372">
@@ -13311,10 +13321,10 @@
         <v>0.0</v>
       </c>
       <c r="J372" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K372" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="373">
@@ -13346,10 +13356,10 @@
         <v>16.0</v>
       </c>
       <c r="J373" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K373" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="374">
@@ -13381,10 +13391,10 @@
         <v>24.0</v>
       </c>
       <c r="J374" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K374" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="375">
@@ -13416,10 +13426,10 @@
         <v>24.0</v>
       </c>
       <c r="J375" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K375" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="376">
@@ -13451,10 +13461,10 @@
         <v>22.0</v>
       </c>
       <c r="J376" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K376" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="377">
@@ -13486,10 +13496,10 @@
         <v>24.0</v>
       </c>
       <c r="J377" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K377" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="378">
@@ -13521,10 +13531,10 @@
         <v>22.0</v>
       </c>
       <c r="J378" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K378" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="379">
@@ -13556,10 +13566,10 @@
         <v>34.0</v>
       </c>
       <c r="J379" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K379" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="380">
@@ -13591,10 +13601,10 @@
         <v>24.0</v>
       </c>
       <c r="J380" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K380" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="381">
@@ -13626,10 +13636,10 @@
         <v>22.0</v>
       </c>
       <c r="J381" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K381" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="382">
@@ -13661,10 +13671,10 @@
         <v>34.0</v>
       </c>
       <c r="J382" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K382" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="383">
@@ -13696,10 +13706,10 @@
         <v>23.0</v>
       </c>
       <c r="J383" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K383" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="384">
@@ -13731,10 +13741,10 @@
         <v>37.0</v>
       </c>
       <c r="J384" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K384" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="385">
@@ -13766,10 +13776,10 @@
         <v>20.0</v>
       </c>
       <c r="J385" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K385" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="386">
@@ -13801,10 +13811,10 @@
         <v>30.0</v>
       </c>
       <c r="J386" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K386" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="387">
@@ -13836,10 +13846,10 @@
         <v>23.0</v>
       </c>
       <c r="J387" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K387" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="388">
@@ -13871,10 +13881,10 @@
         <v>12.0</v>
       </c>
       <c r="J388" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K388" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="389">
@@ -13906,10 +13916,10 @@
         <v>15.0</v>
       </c>
       <c r="J389" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K389" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="390">
@@ -13941,10 +13951,10 @@
         <v>23.0</v>
       </c>
       <c r="J390" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K390" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="391">
@@ -13976,10 +13986,10 @@
         <v>60.0</v>
       </c>
       <c r="J391" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K391" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="392">
@@ -14011,10 +14021,10 @@
         <v>12.0</v>
       </c>
       <c r="J392" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K392" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="393">
@@ -14046,10 +14056,10 @@
         <v>23.0</v>
       </c>
       <c r="J393" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K393" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="394">
@@ -14081,10 +14091,10 @@
         <v>12.0</v>
       </c>
       <c r="J394" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K394" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="395">
@@ -14116,10 +14126,10 @@
         <v>37.0</v>
       </c>
       <c r="J395" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K395" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="396">
@@ -14151,10 +14161,10 @@
         <v>12.0</v>
       </c>
       <c r="J396" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K396" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="397">
@@ -14186,10 +14196,10 @@
         <v>8.0</v>
       </c>
       <c r="J397" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K397" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="398">
@@ -14221,10 +14231,10 @@
         <v>6.0</v>
       </c>
       <c r="J398" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K398" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="399">
@@ -14256,10 +14266,10 @@
         <v>12.0</v>
       </c>
       <c r="J399" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K399" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="400">
@@ -14291,10 +14301,10 @@
         <v>8.0</v>
       </c>
       <c r="J400" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K400" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="401">
@@ -14326,10 +14336,10 @@
         <v>8.0</v>
       </c>
       <c r="J401" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K401" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="402">
@@ -14361,10 +14371,10 @@
         <v>3.0</v>
       </c>
       <c r="J402" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K402" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="403">
@@ -14396,10 +14406,10 @@
         <v>2.0</v>
       </c>
       <c r="J403" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K403" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="404">
@@ -14431,10 +14441,10 @@
         <v>47.0</v>
       </c>
       <c r="J404" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K404" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="405">
@@ -14466,10 +14476,10 @@
         <v>4.0</v>
       </c>
       <c r="J405" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K405" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="406">
@@ -14501,10 +14511,10 @@
         <v>25.0</v>
       </c>
       <c r="J406" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K406" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="407">
@@ -14536,10 +14546,10 @@
         <v>6.0</v>
       </c>
       <c r="J407" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K407" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="408">
@@ -14571,10 +14581,10 @@
         <v>8.0</v>
       </c>
       <c r="J408" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K408" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="409">
@@ -14606,10 +14616,10 @@
         <v>3.0</v>
       </c>
       <c r="J409" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K409" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="410">
@@ -14641,10 +14651,10 @@
         <v>3.0</v>
       </c>
       <c r="J410" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K410" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="411">
@@ -14676,10 +14686,10 @@
         <v>19.0</v>
       </c>
       <c r="J411" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K411" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="412">
@@ -14711,10 +14721,10 @@
         <v>2.0</v>
       </c>
       <c r="J412" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K412" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="413">
@@ -14746,10 +14756,10 @@
         <v>16.0</v>
       </c>
       <c r="J413" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K413" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="414">
@@ -14781,10 +14791,10 @@
         <v>2.0</v>
       </c>
       <c r="J414" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K414" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="415">
@@ -14816,10 +14826,10 @@
         <v>20.0</v>
       </c>
       <c r="J415" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K415" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="416">
@@ -14851,10 +14861,10 @@
         <v>3.0</v>
       </c>
       <c r="J416" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K416" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="417">
@@ -14886,10 +14896,10 @@
         <v>13.0</v>
       </c>
       <c r="J417" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K417" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="418">
@@ -14921,10 +14931,10 @@
         <v>8.0</v>
       </c>
       <c r="J418" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K418" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="419">
@@ -15586,7 +15596,7 @@
         <v>14.0</v>
       </c>
       <c r="J437" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K437" t="n">
         <v>30.0</v>
@@ -15621,7 +15631,7 @@
         <v>10.0</v>
       </c>
       <c r="J438" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K438" t="n">
         <v>30.0</v>
@@ -15656,7 +15666,7 @@
         <v>5.0</v>
       </c>
       <c r="J439" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K439" t="n">
         <v>30.0</v>
@@ -15691,7 +15701,7 @@
         <v>10.0</v>
       </c>
       <c r="J440" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K440" t="n">
         <v>30.0</v>
@@ -15726,7 +15736,7 @@
         <v>1.0</v>
       </c>
       <c r="J441" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K441" t="n">
         <v>30.0</v>
@@ -15761,7 +15771,7 @@
         <v>14.0</v>
       </c>
       <c r="J442" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K442" t="n">
         <v>30.0</v>
@@ -15796,7 +15806,7 @@
         <v>39.0</v>
       </c>
       <c r="J443" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K443" t="n">
         <v>30.0</v>
@@ -15831,7 +15841,7 @@
         <v>15.0</v>
       </c>
       <c r="J444" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K444" t="n">
         <v>30.0</v>
@@ -15866,7 +15876,7 @@
         <v>10.0</v>
       </c>
       <c r="J445" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K445" t="n">
         <v>30.0</v>
@@ -15901,7 +15911,7 @@
         <v>10.0</v>
       </c>
       <c r="J446" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K446" t="n">
         <v>30.0</v>
@@ -15936,7 +15946,7 @@
         <v>38.0</v>
       </c>
       <c r="J447" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K447" t="n">
         <v>30.0</v>
@@ -15971,10 +15981,10 @@
         <v>20.0</v>
       </c>
       <c r="J448" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K448" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="449">
@@ -16006,10 +16016,10 @@
         <v>0.0</v>
       </c>
       <c r="J449" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K449" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="450">
@@ -16041,10 +16051,10 @@
         <v>36.0</v>
       </c>
       <c r="J450" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K450" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="451">
@@ -16076,10 +16086,10 @@
         <v>50.0</v>
       </c>
       <c r="J451" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K451" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="452">
@@ -16111,10 +16121,10 @@
         <v>156.0</v>
       </c>
       <c r="J452" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K452" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="453">
@@ -16146,10 +16156,10 @@
         <v>0.0</v>
       </c>
       <c r="J453" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K453" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="454">
@@ -16181,10 +16191,10 @@
         <v>36.0</v>
       </c>
       <c r="J454" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K454" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="455">
@@ -16216,10 +16226,10 @@
         <v>50.0</v>
       </c>
       <c r="J455" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K455" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="456">
@@ -16251,10 +16261,10 @@
         <v>0.0</v>
       </c>
       <c r="J456" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K456" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="457">
@@ -16286,10 +16296,10 @@
         <v>24.0</v>
       </c>
       <c r="J457" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K457" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="458">
@@ -16321,10 +16331,10 @@
         <v>36.0</v>
       </c>
       <c r="J458" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K458" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="459">
@@ -16356,10 +16366,10 @@
         <v>30.0</v>
       </c>
       <c r="J459" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K459" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="460">
@@ -16391,10 +16401,10 @@
         <v>0.0</v>
       </c>
       <c r="J460" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K460" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="461">
@@ -16426,10 +16436,10 @@
         <v>0.0</v>
       </c>
       <c r="J461" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K461" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="462">
@@ -16461,10 +16471,10 @@
         <v>36.0</v>
       </c>
       <c r="J462" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K462" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="463">
@@ -16496,10 +16506,10 @@
         <v>21.0</v>
       </c>
       <c r="J463" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K463" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="464">
@@ -16531,10 +16541,10 @@
         <v>37.0</v>
       </c>
       <c r="J464" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K464" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="465">
@@ -16566,10 +16576,10 @@
         <v>15.0</v>
       </c>
       <c r="J465" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K465" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="466">
@@ -16601,10 +16611,10 @@
         <v>20.0</v>
       </c>
       <c r="J466" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K466" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="467">
@@ -16636,10 +16646,10 @@
         <v>15.0</v>
       </c>
       <c r="J467" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K467" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="468">
@@ -16671,10 +16681,10 @@
         <v>11.0</v>
       </c>
       <c r="J468" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K468" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="469">
@@ -16706,10 +16716,10 @@
         <v>0.0</v>
       </c>
       <c r="J469" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K469" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="470">
@@ -16741,10 +16751,10 @@
         <v>15.0</v>
       </c>
       <c r="J470" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K470" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="471">
@@ -16776,10 +16786,10 @@
         <v>0.0</v>
       </c>
       <c r="J471" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K471" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="472">
@@ -16811,10 +16821,10 @@
         <v>11.0</v>
       </c>
       <c r="J472" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K472" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="473">
@@ -16846,10 +16856,10 @@
         <v>26.0</v>
       </c>
       <c r="J473" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K473" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="474">
@@ -16881,10 +16891,10 @@
         <v>30.0</v>
       </c>
       <c r="J474" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K474" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="475">
@@ -16916,10 +16926,10 @@
         <v>26.0</v>
       </c>
       <c r="J475" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K475" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="476">
@@ -16951,10 +16961,10 @@
         <v>30.0</v>
       </c>
       <c r="J476" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K476" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="477">
@@ -16986,10 +16996,10 @@
         <v>32.0</v>
       </c>
       <c r="J477" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K477" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="478">
@@ -17021,10 +17031,10 @@
         <v>26.0</v>
       </c>
       <c r="J478" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K478" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="479">
@@ -17056,10 +17066,10 @@
         <v>30.0</v>
       </c>
       <c r="J479" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K479" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="480">
@@ -17091,10 +17101,10 @@
         <v>32.0</v>
       </c>
       <c r="J480" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K480" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="481">
@@ -17126,10 +17136,10 @@
         <v>19.0</v>
       </c>
       <c r="J481" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K481" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="482">
@@ -17161,10 +17171,10 @@
         <v>33.0</v>
       </c>
       <c r="J482" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K482" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="483">
@@ -17196,10 +17206,10 @@
         <v>39.0</v>
       </c>
       <c r="J483" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K483" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="484">
@@ -17231,10 +17241,10 @@
         <v>15.0</v>
       </c>
       <c r="J484" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K484" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="485">
@@ -17266,10 +17276,10 @@
         <v>19.0</v>
       </c>
       <c r="J485" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K485" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="486">
@@ -17301,10 +17311,10 @@
         <v>33.0</v>
       </c>
       <c r="J486" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K486" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="487">
@@ -17336,10 +17346,10 @@
         <v>20.0</v>
       </c>
       <c r="J487" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K487" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="488">
@@ -17371,10 +17381,10 @@
         <v>19.0</v>
       </c>
       <c r="J488" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K488" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="489">
@@ -17406,10 +17416,10 @@
         <v>33.0</v>
       </c>
       <c r="J489" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K489" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="490">
@@ -17441,10 +17451,10 @@
         <v>39.0</v>
       </c>
       <c r="J490" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K490" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="491">
@@ -17476,10 +17486,10 @@
         <v>15.0</v>
       </c>
       <c r="J491" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K491" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="492">
@@ -17511,10 +17521,10 @@
         <v>12.0</v>
       </c>
       <c r="J492" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K492" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="493">
@@ -17546,10 +17556,10 @@
         <v>7.0</v>
       </c>
       <c r="J493" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K493" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="494">
@@ -17581,10 +17591,10 @@
         <v>13.0</v>
       </c>
       <c r="J494" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K494" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="495">
@@ -17616,10 +17626,10 @@
         <v>12.0</v>
       </c>
       <c r="J495" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K495" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="496">
@@ -17651,10 +17661,10 @@
         <v>6.0</v>
       </c>
       <c r="J496" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K496" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="497">
@@ -17686,10 +17696,10 @@
         <v>25.0</v>
       </c>
       <c r="J497" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K497" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="498">
@@ -17721,10 +17731,10 @@
         <v>4.0</v>
       </c>
       <c r="J498" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K498" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="499">
@@ -17756,10 +17766,10 @@
         <v>52.0</v>
       </c>
       <c r="J499" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K499" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="500">
@@ -17791,10 +17801,10 @@
         <v>12.0</v>
       </c>
       <c r="J500" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K500" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="501">
@@ -17826,10 +17836,10 @@
         <v>3.0</v>
       </c>
       <c r="J501" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K501" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="502">
@@ -17861,10 +17871,10 @@
         <v>0.0</v>
       </c>
       <c r="J502" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K502" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="503">
@@ -17896,10 +17906,10 @@
         <v>13.0</v>
       </c>
       <c r="J503" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K503" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="504">
@@ -17931,10 +17941,10 @@
         <v>23.0</v>
       </c>
       <c r="J504" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K504" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="505">
@@ -17966,10 +17976,10 @@
         <v>18.0</v>
       </c>
       <c r="J505" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K505" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="506">
@@ -18001,10 +18011,10 @@
         <v>4.0</v>
       </c>
       <c r="J506" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K506" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="507">
@@ -18036,10 +18046,10 @@
         <v>19.0</v>
       </c>
       <c r="J507" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K507" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="508">
@@ -18071,10 +18081,10 @@
         <v>8.0</v>
       </c>
       <c r="J508" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K508" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="509">
@@ -18106,10 +18116,10 @@
         <v>3.0</v>
       </c>
       <c r="J509" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K509" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="510">
@@ -18141,10 +18151,10 @@
         <v>28.0</v>
       </c>
       <c r="J510" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K510" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="511">
@@ -18176,10 +18186,10 @@
         <v>3.0</v>
       </c>
       <c r="J511" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K511" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="512">
@@ -18211,10 +18221,10 @@
         <v>2.0</v>
       </c>
       <c r="J512" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K512" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="513">
@@ -18246,10 +18256,10 @@
         <v>17.0</v>
       </c>
       <c r="J513" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K513" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="514">
@@ -18911,7 +18921,7 @@
         <v>12.0</v>
       </c>
       <c r="J532" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K532" t="n">
         <v>30.0</v>
@@ -18946,7 +18956,7 @@
         <v>5.0</v>
       </c>
       <c r="J533" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K533" t="n">
         <v>30.0</v>
@@ -18981,7 +18991,7 @@
         <v>18.0</v>
       </c>
       <c r="J534" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K534" t="n">
         <v>30.0</v>
@@ -19016,7 +19026,7 @@
         <v>12.0</v>
       </c>
       <c r="J535" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K535" t="n">
         <v>30.0</v>
@@ -19051,7 +19061,7 @@
         <v>1.0</v>
       </c>
       <c r="J536" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K536" t="n">
         <v>30.0</v>
@@ -19086,7 +19096,7 @@
         <v>18.0</v>
       </c>
       <c r="J537" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K537" t="n">
         <v>30.0</v>
@@ -19121,7 +19131,7 @@
         <v>46.0</v>
       </c>
       <c r="J538" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K538" t="n">
         <v>30.0</v>
@@ -19156,7 +19166,7 @@
         <v>14.0</v>
       </c>
       <c r="J539" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K539" t="n">
         <v>30.0</v>
@@ -19191,7 +19201,7 @@
         <v>12.0</v>
       </c>
       <c r="J540" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K540" t="n">
         <v>30.0</v>
@@ -19226,7 +19236,7 @@
         <v>12.0</v>
       </c>
       <c r="J541" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K541" t="n">
         <v>30.0</v>
@@ -19261,7 +19271,7 @@
         <v>43.0</v>
       </c>
       <c r="J542" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K542" t="n">
         <v>30.0</v>
@@ -19296,10 +19306,10 @@
         <v>58.0</v>
       </c>
       <c r="J543" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K543" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="544">
@@ -19331,10 +19341,10 @@
         <v>41.0</v>
       </c>
       <c r="J544" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K544" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="545">
@@ -19366,10 +19376,10 @@
         <v>58.0</v>
       </c>
       <c r="J545" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K545" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="546">
@@ -19401,10 +19411,10 @@
         <v>41.0</v>
       </c>
       <c r="J546" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K546" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="547">
@@ -19436,10 +19446,10 @@
         <v>20.0</v>
       </c>
       <c r="J547" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K547" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="548">
@@ -19471,10 +19481,10 @@
         <v>24.0</v>
       </c>
       <c r="J548" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K548" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="549">
@@ -19506,10 +19516,10 @@
         <v>30.0</v>
       </c>
       <c r="J549" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K549" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="550">
@@ -19541,10 +19551,10 @@
         <v>41.0</v>
       </c>
       <c r="J550" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K550" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="551">
@@ -19576,10 +19586,10 @@
         <v>22.0</v>
       </c>
       <c r="J551" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K551" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="552">
@@ -19611,10 +19621,10 @@
         <v>41.0</v>
       </c>
       <c r="J552" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K552" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="553">
@@ -19646,10 +19656,10 @@
         <v>186.0</v>
       </c>
       <c r="J553" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K553" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="554">
@@ -19681,10 +19691,10 @@
         <v>37.0</v>
       </c>
       <c r="J554" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K554" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="555">
@@ -19716,10 +19726,10 @@
         <v>11.0</v>
       </c>
       <c r="J555" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K555" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="556">
@@ -19751,10 +19761,10 @@
         <v>20.0</v>
       </c>
       <c r="J556" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K556" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="557">
@@ -19786,10 +19796,10 @@
         <v>21.0</v>
       </c>
       <c r="J557" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K557" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="558">
@@ -19821,10 +19831,10 @@
         <v>28.0</v>
       </c>
       <c r="J558" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K558" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="559">
@@ -19856,10 +19866,10 @@
         <v>9.0</v>
       </c>
       <c r="J559" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K559" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="560">
@@ -19891,10 +19901,10 @@
         <v>0.0</v>
       </c>
       <c r="J560" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K560" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="561">
@@ -19926,10 +19936,10 @@
         <v>0.0</v>
       </c>
       <c r="J561" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K561" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="562">
@@ -19961,10 +19971,10 @@
         <v>20.0</v>
       </c>
       <c r="J562" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K562" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="563">
@@ -19996,10 +20006,10 @@
         <v>0.0</v>
       </c>
       <c r="J563" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K563" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="564">
@@ -20031,10 +20041,10 @@
         <v>28.0</v>
       </c>
       <c r="J564" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K564" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="565">
@@ -20066,10 +20076,10 @@
         <v>16.0</v>
       </c>
       <c r="J565" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K565" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="566">
@@ -20101,10 +20111,10 @@
         <v>15.0</v>
       </c>
       <c r="J566" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K566" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="567">
@@ -20136,10 +20146,10 @@
         <v>15.0</v>
       </c>
       <c r="J567" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K567" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="568">
@@ -20171,10 +20181,10 @@
         <v>16.0</v>
       </c>
       <c r="J568" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K568" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="569">
@@ -20206,10 +20216,10 @@
         <v>20.0</v>
       </c>
       <c r="J569" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K569" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="570">
@@ -20241,10 +20251,10 @@
         <v>15.0</v>
       </c>
       <c r="J570" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K570" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="571">
@@ -20276,10 +20286,10 @@
         <v>21.0</v>
       </c>
       <c r="J571" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K571" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="572">
@@ -20311,10 +20321,10 @@
         <v>37.0</v>
       </c>
       <c r="J572" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K572" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="573">
@@ -20346,10 +20356,10 @@
         <v>20.0</v>
       </c>
       <c r="J573" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K573" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="574">
@@ -20381,10 +20391,10 @@
         <v>0.0</v>
       </c>
       <c r="J574" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K574" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="575">
@@ -20416,10 +20426,10 @@
         <v>15.0</v>
       </c>
       <c r="J575" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K575" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="576">
@@ -20451,10 +20461,10 @@
         <v>18.0</v>
       </c>
       <c r="J576" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K576" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="577">
@@ -20486,10 +20496,10 @@
         <v>27.0</v>
       </c>
       <c r="J577" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K577" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="578">
@@ -20521,10 +20531,10 @@
         <v>18.0</v>
       </c>
       <c r="J578" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K578" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="579">
@@ -20556,10 +20566,10 @@
         <v>27.0</v>
       </c>
       <c r="J579" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K579" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="580">
@@ -20591,10 +20601,10 @@
         <v>18.0</v>
       </c>
       <c r="J580" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K580" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="581">
@@ -20626,10 +20636,10 @@
         <v>25.0</v>
       </c>
       <c r="J581" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K581" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="582">
@@ -20661,10 +20671,10 @@
         <v>27.0</v>
       </c>
       <c r="J582" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K582" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="583">
@@ -20696,10 +20706,10 @@
         <v>18.0</v>
       </c>
       <c r="J583" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K583" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="584">
@@ -20731,10 +20741,10 @@
         <v>25.0</v>
       </c>
       <c r="J584" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K584" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="585">
@@ -20766,10 +20776,10 @@
         <v>15.0</v>
       </c>
       <c r="J585" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K585" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="586">
@@ -20801,10 +20811,10 @@
         <v>17.0</v>
       </c>
       <c r="J586" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K586" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="587">
@@ -20836,10 +20846,10 @@
         <v>15.0</v>
       </c>
       <c r="J587" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K587" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="588">
@@ -20871,10 +20881,10 @@
         <v>17.0</v>
       </c>
       <c r="J588" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K588" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="589">
@@ -20906,10 +20916,10 @@
         <v>25.0</v>
       </c>
       <c r="J589" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K589" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="590">
@@ -20941,10 +20951,10 @@
         <v>15.0</v>
       </c>
       <c r="J590" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K590" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="591">
@@ -20976,10 +20986,10 @@
         <v>15.0</v>
       </c>
       <c r="J591" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K591" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="592">
@@ -21011,10 +21021,10 @@
         <v>0.0</v>
       </c>
       <c r="J592" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K592" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="593">
@@ -21046,10 +21056,10 @@
         <v>17.0</v>
       </c>
       <c r="J593" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K593" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="594">
@@ -21081,10 +21091,10 @@
         <v>25.0</v>
       </c>
       <c r="J594" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K594" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="595">
@@ -21116,10 +21126,10 @@
         <v>15.0</v>
       </c>
       <c r="J595" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K595" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="596">
@@ -21151,10 +21161,10 @@
         <v>6.0</v>
       </c>
       <c r="J596" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K596" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="597">
@@ -21186,10 +21196,10 @@
         <v>10.0</v>
       </c>
       <c r="J597" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K597" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="598">
@@ -21221,10 +21231,10 @@
         <v>3.0</v>
       </c>
       <c r="J598" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K598" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="599">
@@ -21256,10 +21266,10 @@
         <v>14.0</v>
       </c>
       <c r="J599" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K599" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="600">
@@ -21291,10 +21301,10 @@
         <v>10.0</v>
       </c>
       <c r="J600" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K600" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="601">
@@ -21326,10 +21336,10 @@
         <v>4.0</v>
       </c>
       <c r="J601" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K601" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="602">
@@ -21361,10 +21371,10 @@
         <v>14.0</v>
       </c>
       <c r="J602" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K602" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="603">
@@ -21396,10 +21406,10 @@
         <v>10.0</v>
       </c>
       <c r="J603" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K603" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
@@ -21431,10 +21441,10 @@
         <v>25.0</v>
       </c>
       <c r="J604" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K604" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="605">
@@ -21466,10 +21476,10 @@
         <v>10.0</v>
       </c>
       <c r="J605" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K605" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="606">
@@ -21501,10 +21511,10 @@
         <v>7.0</v>
       </c>
       <c r="J606" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K606" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="607">
@@ -21536,10 +21546,10 @@
         <v>0.0</v>
       </c>
       <c r="J607" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K607" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="608">
@@ -21571,10 +21581,10 @@
         <v>46.0</v>
       </c>
       <c r="J608" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K608" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="609">
@@ -21606,10 +21616,10 @@
         <v>17.0</v>
       </c>
       <c r="J609" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K609" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="610">
@@ -21641,10 +21651,10 @@
         <v>4.0</v>
       </c>
       <c r="J610" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K610" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="611">
@@ -21676,10 +21686,10 @@
         <v>16.0</v>
       </c>
       <c r="J611" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K611" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="612">
@@ -21711,10 +21721,10 @@
         <v>0.0</v>
       </c>
       <c r="J612" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K612" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="613">
@@ -21746,10 +21756,10 @@
         <v>4.0</v>
       </c>
       <c r="J613" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K613" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="614">
@@ -21781,10 +21791,10 @@
         <v>26.0</v>
       </c>
       <c r="J614" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K614" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="615">
@@ -21816,10 +21826,10 @@
         <v>3.0</v>
       </c>
       <c r="J615" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K615" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="616">
@@ -21851,10 +21861,10 @@
         <v>2.0</v>
       </c>
       <c r="J616" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K616" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="617">
@@ -21886,10 +21896,10 @@
         <v>15.0</v>
       </c>
       <c r="J617" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K617" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="618">
@@ -21921,10 +21931,10 @@
         <v>8.0</v>
       </c>
       <c r="J618" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K618" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="619">
@@ -22586,7 +22596,7 @@
         <v>9.0</v>
       </c>
       <c r="J637" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K637" t="n">
         <v>30.0</v>
@@ -22621,7 +22631,7 @@
         <v>1.0</v>
       </c>
       <c r="J638" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K638" t="n">
         <v>30.0</v>
@@ -22656,7 +22666,7 @@
         <v>5.0</v>
       </c>
       <c r="J639" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K639" t="n">
         <v>30.0</v>
@@ -22691,7 +22701,7 @@
         <v>12.0</v>
       </c>
       <c r="J640" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K640" t="n">
         <v>30.0</v>
@@ -22726,7 +22736,7 @@
         <v>9.0</v>
       </c>
       <c r="J641" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K641" t="n">
         <v>30.0</v>
@@ -22761,7 +22771,7 @@
         <v>12.0</v>
       </c>
       <c r="J642" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K642" t="n">
         <v>30.0</v>
@@ -22796,7 +22806,7 @@
         <v>38.0</v>
       </c>
       <c r="J643" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K643" t="n">
         <v>30.0</v>
@@ -22831,7 +22841,7 @@
         <v>14.0</v>
       </c>
       <c r="J644" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K644" t="n">
         <v>30.0</v>
@@ -22866,7 +22876,7 @@
         <v>9.0</v>
       </c>
       <c r="J645" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K645" t="n">
         <v>30.0</v>
@@ -22901,7 +22911,7 @@
         <v>9.0</v>
       </c>
       <c r="J646" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K646" t="n">
         <v>30.0</v>
@@ -22936,7 +22946,7 @@
         <v>39.0</v>
       </c>
       <c r="J647" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K647" t="n">
         <v>30.0</v>
@@ -22971,10 +22981,10 @@
         <v>43.0</v>
       </c>
       <c r="J648" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K648" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="649">
@@ -23006,10 +23016,10 @@
         <v>24.0</v>
       </c>
       <c r="J649" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K649" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="650">
@@ -23041,10 +23051,10 @@
         <v>61.0</v>
       </c>
       <c r="J650" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K650" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="651">
@@ -23076,10 +23086,10 @@
         <v>43.0</v>
       </c>
       <c r="J651" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K651" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="652">
@@ -23111,10 +23121,10 @@
         <v>12.0</v>
       </c>
       <c r="J652" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K652" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="653">
@@ -23146,10 +23156,10 @@
         <v>20.0</v>
       </c>
       <c r="J653" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K653" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="654">
@@ -23181,10 +23191,10 @@
         <v>43.0</v>
       </c>
       <c r="J654" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K654" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="655">
@@ -23216,10 +23226,10 @@
         <v>152.0</v>
       </c>
       <c r="J655" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K655" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="656">
@@ -23251,10 +23261,10 @@
         <v>61.0</v>
       </c>
       <c r="J656" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K656" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="657">
@@ -23286,10 +23296,10 @@
         <v>30.0</v>
       </c>
       <c r="J657" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K657" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="658">
@@ -23321,10 +23331,10 @@
         <v>43.0</v>
       </c>
       <c r="J658" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K658" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="659">
@@ -23356,10 +23366,10 @@
         <v>16.0</v>
       </c>
       <c r="J659" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K659" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="660">
@@ -23391,10 +23401,10 @@
         <v>17.0</v>
       </c>
       <c r="J660" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K660" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="661">
@@ -23426,10 +23436,10 @@
         <v>16.0</v>
       </c>
       <c r="J661" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K661" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="662">
@@ -23461,10 +23471,10 @@
         <v>37.0</v>
       </c>
       <c r="J662" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K662" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="663">
@@ -23496,10 +23506,10 @@
         <v>21.0</v>
       </c>
       <c r="J663" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K663" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="664">
@@ -23531,10 +23541,10 @@
         <v>10.0</v>
       </c>
       <c r="J664" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K664" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="665">
@@ -23566,10 +23576,10 @@
         <v>17.0</v>
       </c>
       <c r="J665" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K665" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="666">
@@ -23601,10 +23611,10 @@
         <v>16.0</v>
       </c>
       <c r="J666" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K666" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="667">
@@ -23636,10 +23646,10 @@
         <v>20.0</v>
       </c>
       <c r="J667" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K667" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="668">
@@ -23671,10 +23681,10 @@
         <v>11.0</v>
       </c>
       <c r="J668" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K668" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="669">
@@ -23706,10 +23716,10 @@
         <v>0.0</v>
       </c>
       <c r="J669" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K669" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="670">
@@ -23741,10 +23751,10 @@
         <v>37.0</v>
       </c>
       <c r="J670" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K670" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="671">
@@ -23776,10 +23786,10 @@
         <v>17.0</v>
       </c>
       <c r="J671" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K671" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="672">
@@ -23811,10 +23821,10 @@
         <v>20.0</v>
       </c>
       <c r="J672" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K672" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="673">
@@ -23846,10 +23856,10 @@
         <v>15.0</v>
       </c>
       <c r="J673" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K673" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="674">
@@ -23881,10 +23891,10 @@
         <v>20.0</v>
       </c>
       <c r="J674" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K674" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="675">
@@ -23916,10 +23926,10 @@
         <v>12.0</v>
       </c>
       <c r="J675" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K675" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="676">
@@ -23951,10 +23961,10 @@
         <v>0.0</v>
       </c>
       <c r="J676" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K676" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="677">
@@ -23986,10 +23996,10 @@
         <v>21.0</v>
       </c>
       <c r="J677" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K677" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="678">
@@ -24021,10 +24031,10 @@
         <v>17.0</v>
       </c>
       <c r="J678" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K678" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="679">
@@ -24056,10 +24066,10 @@
         <v>12.0</v>
       </c>
       <c r="J679" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="K679" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="680">
@@ -24091,10 +24101,10 @@
         <v>23.0</v>
       </c>
       <c r="J680" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K680" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="681">
@@ -24126,10 +24136,10 @@
         <v>21.0</v>
       </c>
       <c r="J681" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K681" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="682">
@@ -24161,10 +24171,10 @@
         <v>22.0</v>
       </c>
       <c r="J682" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K682" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="683">
@@ -24196,10 +24206,10 @@
         <v>23.0</v>
       </c>
       <c r="J683" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K683" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="684">
@@ -24231,10 +24241,10 @@
         <v>21.0</v>
       </c>
       <c r="J684" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K684" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="685">
@@ -24266,10 +24276,10 @@
         <v>22.0</v>
       </c>
       <c r="J685" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K685" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="686">
@@ -24301,10 +24311,10 @@
         <v>23.0</v>
       </c>
       <c r="J686" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K686" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="687">
@@ -24336,10 +24346,10 @@
         <v>21.0</v>
       </c>
       <c r="J687" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="K687" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="688">
@@ -24371,10 +24381,10 @@
         <v>23.0</v>
       </c>
       <c r="J688" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K688" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="689">
@@ -24406,10 +24416,10 @@
         <v>18.0</v>
       </c>
       <c r="J689" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K689" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="690">
@@ -24441,10 +24451,10 @@
         <v>19.0</v>
       </c>
       <c r="J690" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K690" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="691">
@@ -24476,10 +24486,10 @@
         <v>23.0</v>
       </c>
       <c r="J691" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K691" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="692">
@@ -24511,10 +24521,10 @@
         <v>60.0</v>
       </c>
       <c r="J692" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K692" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="693">
@@ -24546,10 +24556,10 @@
         <v>18.0</v>
       </c>
       <c r="J693" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K693" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="694">
@@ -24581,10 +24591,10 @@
         <v>19.0</v>
       </c>
       <c r="J694" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K694" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="695">
@@ -24616,10 +24626,10 @@
         <v>15.0</v>
       </c>
       <c r="J695" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K695" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="696">
@@ -24651,10 +24661,10 @@
         <v>0.0</v>
       </c>
       <c r="J696" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K696" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="697">
@@ -24686,10 +24696,10 @@
         <v>18.0</v>
       </c>
       <c r="J697" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K697" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="698">
@@ -24721,10 +24731,10 @@
         <v>19.0</v>
       </c>
       <c r="J698" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K698" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="699">
@@ -24756,10 +24766,10 @@
         <v>30.0</v>
       </c>
       <c r="J699" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="K699" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="700">
@@ -24791,10 +24801,10 @@
         <v>8.0</v>
       </c>
       <c r="J700" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K700" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="701">
@@ -24826,10 +24836,10 @@
         <v>6.0</v>
       </c>
       <c r="J701" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K701" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="702">
@@ -24861,10 +24871,10 @@
         <v>25.0</v>
       </c>
       <c r="J702" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K702" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="703">
@@ -24896,10 +24906,10 @@
         <v>9.0</v>
       </c>
       <c r="J703" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K703" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="704">
@@ -24931,10 +24941,10 @@
         <v>3.0</v>
       </c>
       <c r="J704" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K704" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="705">
@@ -24966,10 +24976,10 @@
         <v>8.0</v>
       </c>
       <c r="J705" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K705" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="706">
@@ -25001,10 +25011,10 @@
         <v>9.0</v>
       </c>
       <c r="J706" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K706" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="707">
@@ -25036,10 +25046,10 @@
         <v>4.0</v>
       </c>
       <c r="J707" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K707" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="708">
@@ -25071,10 +25081,10 @@
         <v>50.0</v>
       </c>
       <c r="J708" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K708" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="709">
@@ -25106,10 +25116,10 @@
         <v>7.0</v>
       </c>
       <c r="J709" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K709" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="710">
@@ -25141,10 +25151,10 @@
         <v>8.0</v>
       </c>
       <c r="J710" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K710" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="711">
@@ -25176,10 +25186,10 @@
         <v>0.0</v>
       </c>
       <c r="J711" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K711" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="712">
@@ -25211,10 +25221,10 @@
         <v>10.0</v>
       </c>
       <c r="J712" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K712" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="713">
@@ -25246,10 +25256,10 @@
         <v>26.0</v>
       </c>
       <c r="J713" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K713" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="714">
@@ -25281,10 +25291,10 @@
         <v>3.0</v>
       </c>
       <c r="J714" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K714" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="715">
@@ -25316,10 +25326,10 @@
         <v>17.0</v>
       </c>
       <c r="J715" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K715" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="716">
@@ -25351,10 +25361,10 @@
         <v>8.0</v>
       </c>
       <c r="J716" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K716" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="717">
@@ -25386,10 +25396,10 @@
         <v>4.0</v>
       </c>
       <c r="J717" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K717" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="718">
@@ -25421,10 +25431,10 @@
         <v>25.0</v>
       </c>
       <c r="J718" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K718" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="719">
@@ -25456,10 +25466,10 @@
         <v>3.0</v>
       </c>
       <c r="J719" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K719" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="720">
@@ -25491,10 +25501,10 @@
         <v>2.0</v>
       </c>
       <c r="J720" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K720" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="721">
@@ -25526,10 +25536,10 @@
         <v>16.0</v>
       </c>
       <c r="J721" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="K721" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
